--- a/2、SmartCar协议.xlsx
+++ b/2、SmartCar协议.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="1720" yWindow="8140" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,31 @@
   </si>
   <si>
     <t>0X03/0X02/0X01/0X00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <rPh sb="0" eb="1">
+      <t>xin't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X02获取数据</t>
+    <rPh sb="4" eb="5">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'j</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,63 +867,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,13 +929,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>19</v>
@@ -933,27 +956,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
@@ -962,7 +985,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,22 +993,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -994,7 +1017,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,13 +1025,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>19</v>
@@ -1026,6 +1049,70 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/2、SmartCar协议.xlsx
+++ b/2、SmartCar协议.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="8140" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2000" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,13 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波</t>
+    <rPh sb="0" eb="1">
+      <t>c's'b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -1112,9 +1119,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2、SmartCar协议.xlsx
+++ b/2、SmartCar协议.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2000" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -531,12 +539,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -813,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/2、SmartCar协议.xlsx
+++ b/2、SmartCar协议.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="蓝牙版" sheetId="1" r:id="rId1"/>
+    <sheet name="网络版" sheetId="2" r:id="rId2"/>
+    <sheet name="标准信号" sheetId="3" r:id="rId3"/>
+    <sheet name="CRC8" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +297,430 @@
     <t>超声波</t>
     <rPh sb="0" eb="1">
       <t>c's'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器设备号</t>
+  </si>
+  <si>
+    <t>数据(高位)</t>
+  </si>
+  <si>
+    <t>数据(低位)</t>
+  </si>
+  <si>
+    <t>数据长度</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>帧头</t>
+  </si>
+  <si>
+    <t>帧尾</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、最短为9位，2、长度为整个帧数据的长度，3、CRC校验的范围不包括帧头帧尾、CRC，4、数据位占用两位，5、一个设备数据占用三位</t>
+    <rPh sb="2" eb="3">
+      <t>zui'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chagn'du</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhegn'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhen'shu'j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>d</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chagn'du</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jiao'yan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>d</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fan'wei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bu'boa'k</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhen'tou</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhen'wei</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shu'j'wei</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>liagn'wei</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>san'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信范围</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>xu'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>mioa's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC计算出来</t>
+    <rPh sb="3" eb="4">
+      <t>ji's</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：小程序
+0x02：单片机</t>
+    <rPh sb="5" eb="6">
+      <t>xiao'd'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng'x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dan'p'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：单发
+0x02：群发</t>
+    <rPh sb="5" eb="6">
+      <t>dan'fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qun'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总长度，不超过255</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chagn'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'chao'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：单发，手机只能和单个设备通讯
+0x02：群发，手机可以和多个硬件设备通讯</t>
+    <rPh sb="5" eb="6">
+      <t>dan'fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dan'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ton'x</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>qun'fa</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ke'y</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>he</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ying'jian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>seh'b</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>tong'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备唯一ID，不超过255台</t>
+    <rPh sb="0" eb="1">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'chao'g</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据开始</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的来源</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结束</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验码</t>
+    <rPh sb="0" eb="1">
+      <t>jioa'yan'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个传感器数据占用3个byte</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan'gan'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPKEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据请求码</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing'qiu'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯心跳包</t>
+    <rPh sb="0" eb="1">
+      <t>tong'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'tiao'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车况上报</t>
+    <rPh sb="0" eb="1">
+      <t>che'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shagn'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zzz1014440164/article/details/78560997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsigned char crc8_chk_value(unsigned char *message, unsigned char len)
+{
+    uint8 crc;
+    uint8 i;
+    crc = 0;
+    while(len--)
+    {
+        crc ^= *message++;
+        for(i = 0;i &lt; 8;i++)
+        {
+            if(crc &amp; 0x01)
+            {
+                crc = (crc &gt;&gt; 1) ^ 0x8c;
+            }
+                else crc &gt;&gt;= 1;
+        }
+    }
+    return crc; 
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFF：全部上报
+0X01
+0x02</t>
+    <rPh sb="5" eb="6">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shagn'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询上报</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shagn'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实际情况增加数据，一个传感器数据占用3个byte</t>
+    <rPh sb="0" eb="1">
+      <t>gne'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zeg'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu'j</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,15 +781,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -480,8 +913,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,8 +985,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,8 +1033,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="18">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -547,12 +1102,17 @@
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -827,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,7 +1398,7 @@
     <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="31" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" style="3" customWidth="1"/>
@@ -849,299 +1409,1078 @@
     <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="18" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="69.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="3"/>
+    <col min="13" max="13" width="44" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A18:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:I17"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2、SmartCar协议.xlsx
+++ b/2、SmartCar协议.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蓝牙版" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,14 +41,6 @@
   </si>
   <si>
     <t>数据头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -301,105 +293,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传感器设备号</t>
-  </si>
-  <si>
     <t>数据(高位)</t>
   </si>
   <si>
     <t>数据(低位)</t>
   </si>
   <si>
-    <t>数据长度</t>
-  </si>
-  <si>
     <t>设备ID</t>
-  </si>
-  <si>
-    <t>帧头</t>
-  </si>
-  <si>
-    <t>帧尾</t>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、最短为9位，2、长度为整个帧数据的长度，3、CRC校验的范围不包括帧头帧尾、CRC，4、数据位占用两位，5、一个设备数据占用三位</t>
-    <rPh sb="2" eb="3">
-      <t>zui'duan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chagn'du</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhegn'ge</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhen'shu'j</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>d</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>chagn'du</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>jiao'yan</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>d</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>fan'wei</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>bu'boa'k</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>zhen'tou</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zhen'wei</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>shu'j'wei</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>zhan'yong</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>liagn'wei</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>she'b</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>zhan'yong</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>san'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通信范围</t>
@@ -461,80 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x01：单发
-0x02：群发</t>
-    <rPh sb="5" eb="6">
-      <t>dan'fa</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>qun'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总长度，不超过255</t>
-    <rPh sb="0" eb="1">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>chagn'du</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'chao'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01：单发，手机只能和单个设备通讯
-0x02：群发，手机可以和多个硬件设备通讯</t>
-    <rPh sb="5" eb="6">
-      <t>dan'fa</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shou'ji</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi'neng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>he</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dan'ge</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>she'b</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ton'x</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>qun'fa</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>shou'ji</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ke'y</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>he</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>duo'ge</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ying'jian</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>seh'b</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>tong'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备唯一ID，不超过255台</t>
     <rPh sb="0" eb="1">
       <t>she'b</t>
@@ -598,60 +424,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个传感器数据占用3个byte</t>
+    <t>https://blog.csdn.net/zzz1014440164/article/details/78560997</t>
+  </si>
+  <si>
+    <t>数据流向</t>
     <rPh sb="0" eb="1">
+      <t>shu'j'liu'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作指令</t>
+    <rPh sb="0" eb="1">
+      <t>c'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：上位机
+0x02：单片机</t>
+    <rPh sb="5" eb="6">
+      <t>shagn'wei'j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dan'p'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、最短为9位，
+2、长度为整个帧数据的长度，
+3、CRC校验的范围不包括帧头帧尾、CRC，
+4、数据位占用两位，
+5、一个设备数据占用2位</t>
+    <rPh sb="2" eb="3">
+      <t>zui'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chagn'du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhegn'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhen'shu'j</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>d</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chagn'du</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jiao'yan</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fan'wei</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>bu'boa'k</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhen'tou</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhen'wei</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shu'j'wei</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>liagn'wei</t>
+    </rPh>
+    <rPh sb="60" eb="61">
       <t>yi'ge</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>chuan'gan'qi</t>
-    </rPh>
+    <rPh sb="62" eb="63">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：上位机下发
+0x02：下位机上传</t>
     <rPh sb="5" eb="6">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhan'yong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPKEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据请求码</t>
-    <rPh sb="0" eb="1">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qing'qiu'ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯心跳包</t>
-    <rPh sb="0" eb="1">
-      <t>tong'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'tiao'b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车况上报</t>
-    <rPh sb="0" eb="1">
-      <t>che'k</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shagn'b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/zzz1014440164/article/details/78560997</t>
+      <t>s'w'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia'f</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xia'wei'j</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shang'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：上位机下发
+0x03：下位机上传</t>
+    <rPh sb="5" eb="6">
+      <t>s'w'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia'f</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xia'wei'j</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shang'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X02：开
+0X01：关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">unsigned char crc8_chk_value(unsigned char *message, unsigned char len)
@@ -677,51 +606,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0XF0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0XFF：全部上报
-0X01
-0x02</t>
+    <t>0x01：单发
+0x02：广播</t>
+    <rPh sb="13" eb="14">
+      <t>guagn'bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：单发
+0x02：广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01：单发，手机只能和单个设备通讯
+0x02：广播，手机可以和多个硬件设备通讯</t>
     <rPh sb="5" eb="6">
-      <t>quan'bu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shagn'bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据查询上报</t>
-    <rPh sb="0" eb="1">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cha'x</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shagn'bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据实际情况增加数据，一个传感器数据占用3个byte</t>
-    <rPh sb="0" eb="1">
-      <t>gne'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qing'k</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zeg'j</t>
+      <t>dan'fa</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>shu'j</t>
-    </rPh>
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dan'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ton'x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ke'y</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>he</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ying'jian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>seh'b</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>tong'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -780,6 +725,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -795,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -949,13 +903,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -966,12 +925,54 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -990,8 +991,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,15 +1020,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,74 +1032,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1113,6 +1141,19 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1389,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1410,17 +1451,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>50</v>
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,37 +1469,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>59</v>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>61</v>
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,31 +1507,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="17" t="s">
-        <v>53</v>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,20 +1539,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1520,33 +1561,33 @@
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1554,26 +1595,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1584,31 +1625,31 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -1616,31 +1657,31 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -1648,31 +1689,31 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1680,31 +1721,31 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1712,31 +1753,31 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1744,31 +1785,31 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1776,26 +1817,26 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1807,20 +1848,21 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="69.1640625" style="3" customWidth="1"/>
@@ -1830,210 +1872,171 @@
     <col min="8" max="8" width="25.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="44" style="3" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A18:D20"/>
+  <mergeCells count="1">
+    <mergeCell ref="A13:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2042,232 +2045,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.5" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="39">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="39">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="39">
+        <v>2</v>
+      </c>
+      <c r="F1" s="39">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="39">
+        <v>4</v>
+      </c>
+      <c r="H1" s="39">
+        <v>5</v>
+      </c>
+      <c r="I1" s="39">
+        <v>6</v>
+      </c>
+      <c r="J1" s="39">
+        <v>7</v>
+      </c>
+      <c r="K1" s="39">
+        <v>8</v>
+      </c>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2276,201 +2231,201 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="A1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="A2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2、SmartCar协议.xlsx
+++ b/2、SmartCar协议.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/STC/SmartCar/SmartCarDOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E80052-6785-1E46-8E25-B36177C0AD91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="蓝牙版" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="标准信号" sheetId="3" r:id="rId3"/>
     <sheet name="CRC8" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,23 +547,6 @@
   <si>
     <t>0x01：上位机下发
 0x02：下位机上传</t>
-    <rPh sb="5" eb="6">
-      <t>s'w'j</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xia'f</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xia'wei'j</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shang'chuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01：上位机下发
-0x03：下位机上传</t>
     <rPh sb="5" eb="6">
       <t>s'w'j</t>
     </rPh>
@@ -669,11 +653,37 @@
     <t>0X33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>高位：温度
+低位：湿度</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02：下位机上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1075,6 +1085,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,10 +1131,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1160,6 +1170,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1427,10 +1440,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1582,10 +1595,10 @@
       <c r="I10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1853,11 +1866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1926,10 +1939,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -2003,12 +2016,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2017,10 +2030,10 @@
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -2029,10 +2042,10 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2044,11 +2057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2071,34 +2084,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="39">
+      <c r="C1" s="25">
         <v>0</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="25">
         <v>1</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="25">
         <v>2</v>
       </c>
-      <c r="F1" s="39">
+      <c r="F1" s="25">
         <v>3</v>
       </c>
-      <c r="G1" s="39">
+      <c r="G1" s="25">
         <v>4</v>
       </c>
-      <c r="H1" s="39">
+      <c r="H1" s="25">
         <v>5</v>
       </c>
-      <c r="I1" s="39">
-        <v>6</v>
-      </c>
-      <c r="J1" s="39">
+      <c r="I1" s="25">
+        <v>6</v>
+      </c>
+      <c r="J1" s="25">
         <v>7</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="25">
         <v>8</v>
       </c>
-      <c r="L1" s="40"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2134,10 +2147,10 @@
       <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="26"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2153,10 +2166,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>32</v>
@@ -2183,28 +2196,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
@@ -2215,6 +2228,130 @@
       <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="5" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2227,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2237,195 +2374,195 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2434,7 +2571,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
